--- a/biology/Microbiologie/Chlorella/Chlorella.xlsx
+++ b/biology/Microbiologie/Chlorella/Chlorella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chlorella est un genre d'algues vertes unicellulaires d'eau douce, les Chlorelles. Il fut décrit en 1890 par un microbiologiste hollandais Martinus Willem Beijerinck. Ces algues se distinguent des autres végétaux par une exceptionnelle concentration en chlorophylle et leur capacité à former des associations symbiotiques avec certains animaux (coraux, éponges…)[4]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chlorella est un genre d'algues vertes unicellulaires d'eau douce, les Chlorelles. Il fut décrit en 1890 par un microbiologiste hollandais Martinus Willem Beijerinck. Ces algues se distinguent des autres végétaux par une exceptionnelle concentration en chlorophylle et leur capacité à former des associations symbiotiques avec certains animaux (coraux, éponges…). 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette algue unicellulaire vit isolée ou en petits groupes de cellules. La cellule est de forme globuleuse ou ellipsoïdale. La paroi cellulaire est lisse et contient une glucosamine (chitosane). Elle ne présente qu'un seul noyau et un seul chloroplaste, généralement situés sur les bords de la cellule. Le chloroplaste ne contient qu'un seul pyrénoïde, recouvert d’une couche d’amidon[5]. Elle est surtout originaire d'Asie, notamment la Corée du Sud. Elle peur cependant être cultivée en France, à un coût plus élevé. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette algue unicellulaire vit isolée ou en petits groupes de cellules. La cellule est de forme globuleuse ou ellipsoïdale. La paroi cellulaire est lisse et contient une glucosamine (chitosane). Elle ne présente qu'un seul noyau et un seul chloroplaste, généralement situés sur les bords de la cellule. Le chloroplaste ne contient qu'un seul pyrénoïde, recouvert d’une couche d’amidon. Elle est surtout originaire d'Asie, notamment la Corée du Sud. Elle peur cependant être cultivée en France, à un coût plus élevé. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La multiplication asexuée se déroule par rupture de la cellule parentale, qui libère de 2 à 8 spores sans flagelles. La reproduction est encore inconnue en 2013[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La multiplication asexuée se déroule par rupture de la cellule parentale, qui libère de 2 à 8 spores sans flagelles. La reproduction est encore inconnue en 2013.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre est cosmopolite ; des espèces de Chlorelles sont connues aussi bien en eau douce qu'en eau salée.
 </t>
@@ -604,9 +622,11 @@
           <t>Recherche</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'analyse de la séquence complète du génome d'une espèce de Chlorelles (Chlorella variabilis NC64A) a été publiée en 2010 : elle révèle 9 791 gènes de protéines, dont des gènes qui pourraient gouverner la méiose et la synthèse de flagelles. Cette espèce pourrait ainsi avoir un cycle sexuel qui était passé inaperçu jusqu'ici. Cette analyse montre aussi une coévolution entre la Chlorelle et ses virus (eux-mêmes dotés des gènes impliqués dans la synthèse et la dégradation de la chitine et du chitosane) qui lui ont probablement transmis la capacité, unique chez les algues, de synthétiser une épaisse paroi cellulaire riche en dérivés de chitine, empêchant ainsi les autres virus de pénétrer dans l'hôte[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'analyse de la séquence complète du génome d'une espèce de Chlorelles (Chlorella variabilis NC64A) a été publiée en 2010 : elle révèle 9 791 gènes de protéines, dont des gènes qui pourraient gouverner la méiose et la synthèse de flagelles. Cette espèce pourrait ainsi avoir un cycle sexuel qui était passé inaperçu jusqu'ici. Cette analyse montre aussi une coévolution entre la Chlorelle et ses virus (eux-mêmes dotés des gènes impliqués dans la synthèse et la dégradation de la chitine et du chitosane) qui lui ont probablement transmis la capacité, unique chez les algues, de synthétiser une épaisse paroi cellulaire riche en dérivés de chitine, empêchant ainsi les autres virus de pénétrer dans l'hôte.
 </t>
         </is>
       </c>
@@ -637,14 +657,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alimentation
-L'intérêt pour la Chlorelle comme aliment a commencé à la fin des années quarante, époque à laquelle on craignait que la surpopulation ne mène à une crise alimentaire mondiale. De nombreuses recherches furent alors entreprises par des institutions aux États-Unis. Sa haute teneur en protéines la rendait potentiellement très intéressante. Elle contient en outre de nombreuses vitamines dont la vitamine B12 et également des acides gras essentiels. Tous ces espoirs furent finalement déçus, la Chlorelle se révélant très onéreuse à produire. La révolution verte ayant été la solution aux problèmes de production alimentaire, elle perdit de son intérêt, et n'est plus aujourd'hui qu'un complément alimentaire vendu en magasin diététique. Elle peut également être diluée dans des préparations comme des smoothies.
-Précautions
-Des analyses faites en laboratoire (2007, Medizinisches Labor Bremen) ont toutefois montré que des Chlorelles du commerce pouvaient être fortement contaminées par de l'aluminium (5260µg/kg et 10300µg/kg sur un autre lot), de l'étain (610µg/kg et &lt;25µg/kg), de l'arsenic (20µg/kg et 85µg/kg), du plomb (100µg/kg et 400µg/kg) et dans une moindre mesure du cadmium (&lt;25µg/kg dans les deux cas) et du mercure (&lt;2µg/kg et 5,6µg/kg)&gt;)[réf. nécessaire][6]
-Il convient donc s'assurer de la qualité des Chlorelles, notamment de leur lieu de production et de leur mode de culture.
-Industrie
-Production de biocarburant
-Des recherches sont effectuées pour utiliser la chlorelle comme source de biocarburant de troisième génération[7], par exemple de biométhane[8].
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'intérêt pour la Chlorelle comme aliment a commencé à la fin des années quarante, époque à laquelle on craignait que la surpopulation ne mène à une crise alimentaire mondiale. De nombreuses recherches furent alors entreprises par des institutions aux États-Unis. Sa haute teneur en protéines la rendait potentiellement très intéressante. Elle contient en outre de nombreuses vitamines dont la vitamine B12 et également des acides gras essentiels. Tous ces espoirs furent finalement déçus, la Chlorelle se révélant très onéreuse à produire. La révolution verte ayant été la solution aux problèmes de production alimentaire, elle perdit de son intérêt, et n'est plus aujourd'hui qu'un complément alimentaire vendu en magasin diététique. Elle peut également être diluée dans des préparations comme des smoothies.
 </t>
         </is>
       </c>
@@ -670,12 +689,93 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Précautions</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des analyses faites en laboratoire (2007, Medizinisches Labor Bremen) ont toutefois montré que des Chlorelles du commerce pouvaient être fortement contaminées par de l'aluminium (5260µg/kg et 10300µg/kg sur un autre lot), de l'étain (610µg/kg et &lt;25µg/kg), de l'arsenic (20µg/kg et 85µg/kg), du plomb (100µg/kg et 400µg/kg) et dans une moindre mesure du cadmium (&lt;25µg/kg dans les deux cas) et du mercure (&lt;2µg/kg et 5,6µg/kg)&gt;)[réf. nécessaire]
+Il convient donc s'assurer de la qualité des Chlorelles, notamment de leur lieu de production et de leur mode de culture.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Chlorella</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chlorella</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Industrie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Production de biocarburant</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des recherches sont effectuées pour utiliser la chlorelle comme source de biocarburant de troisième génération, par exemple de biométhane.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Chlorella</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chlorella</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (10 novembre 2018)[1] :
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (10 novembre 2018) :
 Chlorella acuminata Gerneck
 Chlorella antarctica (F.E.Fritsch) Wille
 Chlorella bacteroidea Hortobágyi
@@ -724,14 +824,14 @@
 Chlorella volutis C.Bock, Krienitz &amp; Pröschold
 Chlorella vulgaris Beyerinck (Beijerinck) (espèce type)
 Chlorella xanthella Beijerinck (Statut incertain)
-Selon BioLib                    (10 novembre 2018)[3] :
+Selon BioLib                    (10 novembre 2018) :
 Chlorella homosphaera Skuja, 1948
 Chlorella miniata (Naegeli) Oltmanns, 1904
 Chlorella minutissima Fott &amp; Novakova
 Chlorella mirabilis V.M.Andreeva, 1973
 Chlorella protothecoides Kruger, 1894
 Chlorella vulgaris Beijerinck, 1890
-Selon ITIS      (10 novembre 2018)[9] :
+Selon ITIS      (10 novembre 2018) :
 Chlorella conductrix (Brandt) Beijerinck
 Chlorella luteoviridis Chodat, 1912
 Chlorella marina
@@ -748,7 +848,7 @@
 Chlorella vulgaris Beijerinck, 1890
 Chlorella xanthella Beijernick
 Chlorella zopfingiensis Donz, 1934
-Selon World Register of Marine Species                               (10 novembre 2018)[2] :
+Selon World Register of Marine Species                               (10 novembre 2018) :
 Chlorella acuminata Gerneck, 1907
 Chlorella anitrata
 Chlorella antarctica (F.E.Fritsch) Wille, 1924
